--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Model Class.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Model Class.xlsx
@@ -32,10 +32,28 @@
     <t>Model Class_1</t>
   </si>
   <si>
-    <t>Predictive model</t>
+    <t>Consumption model</t>
   </si>
   <si>
-    <t>Model Class_2</t>
+    <t>Model Class_5</t>
+  </si>
+  <si>
+    <t>Dose-response model</t>
+  </si>
+  <si>
+    <t>Model Class_7</t>
+  </si>
+  <si>
+    <t>Exposure model</t>
+  </si>
+  <si>
+    <t>Model Class_6</t>
+  </si>
+  <si>
+    <t>Health metrics model</t>
+  </si>
+  <si>
+    <t>Model Class_9</t>
   </si>
   <si>
     <t>Other Empirical models</t>
@@ -44,46 +62,28 @@
     <t>Model Class_3</t>
   </si>
   <si>
+    <t>Predictive model</t>
+  </si>
+  <si>
+    <t>Model Class_2</t>
+  </si>
+  <si>
     <t>Process model</t>
   </si>
   <si>
     <t>Model Class_4</t>
   </si>
   <si>
-    <t>Consumption model</t>
+    <t>QRA model</t>
   </si>
   <si>
-    <t>Model Class_5</t>
-  </si>
-  <si>
-    <t>Exposure model</t>
-  </si>
-  <si>
-    <t>Model Class_6</t>
-  </si>
-  <si>
-    <t>Dose-response model</t>
-  </si>
-  <si>
-    <t>Model Class_7</t>
+    <t>Model Class_10</t>
   </si>
   <si>
     <t>Toxicological reference value model</t>
   </si>
   <si>
     <t>Model Class_8</t>
-  </si>
-  <si>
-    <t>Health metrics model</t>
-  </si>
-  <si>
-    <t>Model Class_9</t>
-  </si>
-  <si>
-    <t>QRA model</t>
-  </si>
-  <si>
-    <t>Model Class_10</t>
   </si>
 </sst>
 </file>
